--- a/updata12.xlsx
+++ b/updata12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b1ebd8795079e2fe/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="116" documentId="8_{C66F3EE1-1D37-4411-9D0A-61700B6570AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3105D3C-25D7-462A-BCB6-3CA64B4F2BC5}"/>
+  <xr:revisionPtr revIDLastSave="178" documentId="8_{C66F3EE1-1D37-4411-9D0A-61700B6570AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4AAFA76-93CD-409A-B4F4-6C377CE22206}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{BEBA7C0A-AC8A-473A-B18E-6F46CC536449}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="67">
   <si>
     <t>Item no</t>
   </si>
@@ -220,6 +220,18 @@
   </si>
   <si>
     <t>ragi</t>
+  </si>
+  <si>
+    <t>milk</t>
+  </si>
+  <si>
+    <t>diary</t>
+  </si>
+  <si>
+    <t>Aavin</t>
+  </si>
+  <si>
+    <t>curd</t>
   </si>
 </sst>
 </file>
@@ -703,13 +715,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1070,10 +1085,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5A359D-CB22-416D-A0C2-68E8E386BD6E}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1142,7 +1157,7 @@
         <v>10</v>
       </c>
       <c r="I2" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -1171,7 +1186,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="1">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -1200,7 +1215,7 @@
         <v>15</v>
       </c>
       <c r="I4" s="1">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -1229,7 +1244,7 @@
         <v>17</v>
       </c>
       <c r="I5" s="1">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -1258,7 +1273,7 @@
         <v>19</v>
       </c>
       <c r="I6" s="1">
-        <v>3</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -1287,7 +1302,7 @@
         <v>21</v>
       </c>
       <c r="I7" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -1316,7 +1331,7 @@
         <v>12</v>
       </c>
       <c r="I8" s="1">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -1345,7 +1360,7 @@
         <v>25</v>
       </c>
       <c r="I9" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -1374,7 +1389,7 @@
         <v>27</v>
       </c>
       <c r="I10" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -1403,7 +1418,7 @@
         <v>30</v>
       </c>
       <c r="I11" s="1">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -1432,7 +1447,7 @@
         <v>30</v>
       </c>
       <c r="I12" s="1">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -1461,7 +1476,7 @@
         <v>33</v>
       </c>
       <c r="I13" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -1490,7 +1505,7 @@
         <v>35</v>
       </c>
       <c r="I14" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -1519,7 +1534,7 @@
         <v>33</v>
       </c>
       <c r="I15" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -1548,7 +1563,7 @@
         <v>38</v>
       </c>
       <c r="I16" s="1">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -1565,7 +1580,7 @@
         <v>45575</v>
       </c>
       <c r="E17" s="2">
-        <v>45583</v>
+        <v>45589</v>
       </c>
       <c r="F17" s="1">
         <v>25</v>
@@ -1577,7 +1592,7 @@
         <v>15</v>
       </c>
       <c r="I17" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -1606,7 +1621,7 @@
         <v>19</v>
       </c>
       <c r="I18" s="1">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -1635,7 +1650,7 @@
         <v>42</v>
       </c>
       <c r="I19" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -1664,7 +1679,7 @@
         <v>19</v>
       </c>
       <c r="I20" s="1">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -1693,7 +1708,7 @@
         <v>45</v>
       </c>
       <c r="I21" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -1722,7 +1737,7 @@
         <v>10</v>
       </c>
       <c r="I22" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -1751,7 +1766,7 @@
         <v>12</v>
       </c>
       <c r="I23" s="1">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -1780,7 +1795,7 @@
         <v>49</v>
       </c>
       <c r="I24" s="1">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -1809,7 +1824,7 @@
         <v>51</v>
       </c>
       <c r="I25" s="1">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -1838,7 +1853,7 @@
         <v>10</v>
       </c>
       <c r="I26" s="1">
-        <v>2</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
@@ -1867,7 +1882,7 @@
         <v>49</v>
       </c>
       <c r="I27" s="1">
-        <v>2</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
@@ -1896,7 +1911,7 @@
         <v>27</v>
       </c>
       <c r="I28" s="1">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
@@ -1925,7 +1940,7 @@
         <v>55</v>
       </c>
       <c r="I29" s="1">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -1954,7 +1969,7 @@
         <v>57</v>
       </c>
       <c r="I30" s="1">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
@@ -1971,7 +1986,7 @@
         <v>45431</v>
       </c>
       <c r="E31" s="2">
-        <v>45584</v>
+        <v>45590</v>
       </c>
       <c r="F31" s="1">
         <v>20</v>
@@ -1983,7 +1998,7 @@
         <v>59</v>
       </c>
       <c r="I31" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
@@ -2012,7 +2027,65 @@
         <v>25</v>
       </c>
       <c r="I32" s="1">
-        <v>8</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="2">
+        <v>45586</v>
+      </c>
+      <c r="E33" s="2">
+        <v>45588</v>
+      </c>
+      <c r="F33" s="1">
+        <v>50</v>
+      </c>
+      <c r="G33" s="1">
+        <v>25</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I33" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="2">
+        <v>45586</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45589</v>
+      </c>
+      <c r="F34" s="1">
+        <v>50</v>
+      </c>
+      <c r="G34" s="1">
+        <v>25</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I34" s="1">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
